--- a/output/20251204/Input_Total.xlsx
+++ b/output/20251204/Input_Total.xlsx
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.6">
@@ -3972,7 +3972,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="3">
-        <v>400</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -4764,7 +4764,7 @@
         <v>241</v>
       </c>
       <c r="B109" s="4">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.6">
@@ -4772,7 +4772,7 @@
         <v>242</v>
       </c>
       <c r="B110" s="4">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.6">
@@ -4780,7 +4780,7 @@
         <v>243</v>
       </c>
       <c r="B111" s="4">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="112" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -4788,7 +4788,7 @@
         <v>244</v>
       </c>
       <c r="B112" s="4">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" spans="1:51" ht="16.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -5716,7 +5716,7 @@
         <v>353</v>
       </c>
       <c r="B228" s="27">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="229" spans="1:52" x14ac:dyDescent="0.6">
@@ -5724,7 +5724,7 @@
         <v>354</v>
       </c>
       <c r="B229" s="27">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="230" spans="1:52" x14ac:dyDescent="0.6">
@@ -5732,7 +5732,7 @@
         <v>355</v>
       </c>
       <c r="B230" s="27">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="231" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5740,7 +5740,7 @@
         <v>356</v>
       </c>
       <c r="B231" s="27">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="232" spans="1:52" x14ac:dyDescent="0.6">
@@ -5884,7 +5884,7 @@
         <v>374</v>
       </c>
       <c r="B249" s="5">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="250" spans="1:51" x14ac:dyDescent="0.6">
@@ -5892,7 +5892,7 @@
         <v>375</v>
       </c>
       <c r="B250" s="5">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="251" spans="1:51" x14ac:dyDescent="0.6">
@@ -5900,7 +5900,7 @@
         <v>376</v>
       </c>
       <c r="B251" s="5">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="252" spans="1:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5908,7 +5908,7 @@
         <v>377</v>
       </c>
       <c r="B252" s="5">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="253" spans="1:51" x14ac:dyDescent="0.6">
@@ -6044,7 +6044,7 @@
         <v>394</v>
       </c>
       <c r="B269" s="5">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="270" spans="1:52" x14ac:dyDescent="0.6">
@@ -6052,7 +6052,7 @@
         <v>395</v>
       </c>
       <c r="B270" s="5">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="271" spans="1:52" x14ac:dyDescent="0.6">
@@ -6060,7 +6060,7 @@
         <v>396</v>
       </c>
       <c r="B271" s="5">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="272" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -6068,7 +6068,7 @@
         <v>397</v>
       </c>
       <c r="B272" s="5">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="273" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6292,7 +6292,7 @@
         <v>425</v>
       </c>
       <c r="B300" s="13">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:51" x14ac:dyDescent="0.6">
@@ -6420,7 +6420,7 @@
         <v>440</v>
       </c>
       <c r="B316" s="24">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:51" x14ac:dyDescent="0.6">

--- a/output/20251204/Input_Total.xlsx
+++ b/output/20251204/Input_Total.xlsx
@@ -3900,7 +3900,7 @@
         <v>835</v>
       </c>
       <c r="B1" s="111">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.6">
@@ -3972,7 +3972,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="3">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -4676,7 +4676,7 @@
         <v>230</v>
       </c>
       <c r="B98" s="8">
-        <v>2.29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.6">
@@ -4916,7 +4916,7 @@
         <v>260</v>
       </c>
       <c r="B128" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:52" x14ac:dyDescent="0.6">
@@ -4924,7 +4924,7 @@
         <v>261</v>
       </c>
       <c r="B129" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:52" x14ac:dyDescent="0.6">
@@ -4932,7 +4932,7 @@
         <v>262</v>
       </c>
       <c r="B130" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:52" x14ac:dyDescent="0.6">
@@ -4940,7 +4940,7 @@
         <v>263</v>
       </c>
       <c r="B131" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:52" x14ac:dyDescent="0.6">
@@ -4948,7 +4948,7 @@
         <v>264</v>
       </c>
       <c r="B132" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:52" x14ac:dyDescent="0.6">
@@ -4964,7 +4964,7 @@
         <v>266</v>
       </c>
       <c r="B134" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:52" x14ac:dyDescent="0.6">
@@ -4972,7 +4972,7 @@
         <v>267</v>
       </c>
       <c r="B135" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:52" x14ac:dyDescent="0.6">
@@ -4980,7 +4980,7 @@
         <v>268</v>
       </c>
       <c r="B136" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:52" x14ac:dyDescent="0.6">
@@ -4996,7 +4996,7 @@
         <v>270</v>
       </c>
       <c r="B138" s="22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:52" x14ac:dyDescent="0.6">
@@ -5004,7 +5004,7 @@
         <v>271</v>
       </c>
       <c r="B139" s="23">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:52" x14ac:dyDescent="0.6">
@@ -5012,7 +5012,7 @@
         <v>272</v>
       </c>
       <c r="B140" s="23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:52" x14ac:dyDescent="0.6">
@@ -5020,7 +5020,7 @@
         <v>26</v>
       </c>
       <c r="B141" s="23">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:52" x14ac:dyDescent="0.6">
@@ -5028,7 +5028,7 @@
         <v>273</v>
       </c>
       <c r="B142" s="23">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:52" x14ac:dyDescent="0.6">
@@ -5036,7 +5036,7 @@
         <v>27</v>
       </c>
       <c r="B143" s="23">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:52" x14ac:dyDescent="0.6">
@@ -5044,7 +5044,7 @@
         <v>274</v>
       </c>
       <c r="B144" s="20">
-        <v>409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:52" x14ac:dyDescent="0.6">
@@ -5052,7 +5052,7 @@
         <v>28</v>
       </c>
       <c r="B145" s="20">
-        <v>0.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:52" x14ac:dyDescent="0.6">
@@ -5060,7 +5060,7 @@
         <v>275</v>
       </c>
       <c r="B146" s="20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:52" x14ac:dyDescent="0.6">
@@ -5068,7 +5068,7 @@
         <v>276</v>
       </c>
       <c r="B147" s="20">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:52" x14ac:dyDescent="0.6">
@@ -5076,7 +5076,7 @@
         <v>277</v>
       </c>
       <c r="B148" s="20">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5084,7 +5084,7 @@
         <v>278</v>
       </c>
       <c r="B149" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:52" x14ac:dyDescent="0.6">
@@ -5092,7 +5092,7 @@
         <v>279</v>
       </c>
       <c r="B150" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:52" x14ac:dyDescent="0.6">
@@ -5100,7 +5100,7 @@
         <v>280</v>
       </c>
       <c r="B151" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:52" x14ac:dyDescent="0.6">
@@ -5108,7 +5108,7 @@
         <v>281</v>
       </c>
       <c r="B152" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:52" x14ac:dyDescent="0.6">
@@ -5116,7 +5116,7 @@
         <v>282</v>
       </c>
       <c r="B153" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:52" x14ac:dyDescent="0.6">
@@ -5124,7 +5124,7 @@
         <v>283</v>
       </c>
       <c r="B154" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:52" x14ac:dyDescent="0.6">
@@ -5140,7 +5140,7 @@
         <v>285</v>
       </c>
       <c r="B156" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:52" x14ac:dyDescent="0.6">
@@ -5148,7 +5148,7 @@
         <v>286</v>
       </c>
       <c r="B157" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:52" x14ac:dyDescent="0.6">
@@ -5156,7 +5156,7 @@
         <v>287</v>
       </c>
       <c r="B158" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:52" x14ac:dyDescent="0.6">
@@ -5172,7 +5172,7 @@
         <v>289</v>
       </c>
       <c r="B160" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:52" x14ac:dyDescent="0.6">
@@ -5180,7 +5180,7 @@
         <v>165</v>
       </c>
       <c r="B161" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:52" x14ac:dyDescent="0.6">
@@ -5188,7 +5188,7 @@
         <v>166</v>
       </c>
       <c r="B162" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:52" x14ac:dyDescent="0.6">
@@ -5196,7 +5196,7 @@
         <v>290</v>
       </c>
       <c r="B163" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:52" x14ac:dyDescent="0.6">
@@ -5204,7 +5204,7 @@
         <v>291</v>
       </c>
       <c r="B164" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165" spans="1:52" x14ac:dyDescent="0.6">
@@ -5212,7 +5212,7 @@
         <v>292</v>
       </c>
       <c r="B165" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:52" x14ac:dyDescent="0.6">
@@ -5220,7 +5220,7 @@
         <v>293</v>
       </c>
       <c r="B166" s="7">
-        <v>0</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:52" x14ac:dyDescent="0.6">
@@ -5228,7 +5228,7 @@
         <v>294</v>
       </c>
       <c r="B167" s="7">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="168" spans="1:52" x14ac:dyDescent="0.6">
@@ -5236,7 +5236,7 @@
         <v>295</v>
       </c>
       <c r="B168" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:52" x14ac:dyDescent="0.6">
@@ -5244,7 +5244,7 @@
         <v>296</v>
       </c>
       <c r="B169" s="7">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="170" spans="1:52" x14ac:dyDescent="0.6">
@@ -5252,7 +5252,7 @@
         <v>297</v>
       </c>
       <c r="B170" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5260,7 +5260,7 @@
         <v>298</v>
       </c>
       <c r="B171" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:52" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -5620,7 +5620,7 @@
         <v>342</v>
       </c>
       <c r="B216" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:52" x14ac:dyDescent="0.6">
@@ -5628,7 +5628,7 @@
         <v>343</v>
       </c>
       <c r="B217" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:52" x14ac:dyDescent="0.6">
@@ -5636,7 +5636,7 @@
         <v>344</v>
       </c>
       <c r="B218" s="29">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:52" x14ac:dyDescent="0.6">
@@ -5644,7 +5644,7 @@
         <v>345</v>
       </c>
       <c r="B219" s="29">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:52" x14ac:dyDescent="0.6">
@@ -5652,7 +5652,7 @@
         <v>48</v>
       </c>
       <c r="B220" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:52" x14ac:dyDescent="0.6">
@@ -5668,7 +5668,7 @@
         <v>347</v>
       </c>
       <c r="B222" s="27">
-        <v>0.01483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:52" x14ac:dyDescent="0.6">
@@ -5676,7 +5676,7 @@
         <v>348</v>
       </c>
       <c r="B223" s="27">
-        <v>0.01483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:52" x14ac:dyDescent="0.6">
@@ -5684,7 +5684,7 @@
         <v>349</v>
       </c>
       <c r="B224" s="27">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:52" x14ac:dyDescent="0.6">
@@ -5692,7 +5692,7 @@
         <v>350</v>
       </c>
       <c r="B225" s="27">
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:52" x14ac:dyDescent="0.6">
@@ -5700,7 +5700,7 @@
         <v>351</v>
       </c>
       <c r="B226" s="27">
-        <v>7900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:52" x14ac:dyDescent="0.6">
@@ -5708,7 +5708,7 @@
         <v>352</v>
       </c>
       <c r="B227" s="27">
-        <v>7900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:52" x14ac:dyDescent="0.6">
@@ -5716,7 +5716,7 @@
         <v>353</v>
       </c>
       <c r="B228" s="27">
-        <v>0.053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:52" x14ac:dyDescent="0.6">
@@ -5724,7 +5724,7 @@
         <v>354</v>
       </c>
       <c r="B229" s="27">
-        <v>0.053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:52" x14ac:dyDescent="0.6">
@@ -5732,7 +5732,7 @@
         <v>355</v>
       </c>
       <c r="B230" s="27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5740,7 +5740,7 @@
         <v>356</v>
       </c>
       <c r="B231" s="27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:52" x14ac:dyDescent="0.6">
@@ -5796,7 +5796,7 @@
         <v>363</v>
       </c>
       <c r="B238" s="14">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:52" x14ac:dyDescent="0.6">
@@ -5956,7 +5956,7 @@
         <v>383</v>
       </c>
       <c r="B258" s="9">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="259" spans="1:52" x14ac:dyDescent="0.6">
@@ -5964,7 +5964,7 @@
         <v>384</v>
       </c>
       <c r="B259" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:52" x14ac:dyDescent="0.6">
@@ -6388,7 +6388,7 @@
         <v>436</v>
       </c>
       <c r="B312" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:51" x14ac:dyDescent="0.6">
@@ -6396,7 +6396,7 @@
         <v>437</v>
       </c>
       <c r="B313" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:51" x14ac:dyDescent="0.6">
@@ -6404,7 +6404,7 @@
         <v>438</v>
       </c>
       <c r="B314" s="6">
-        <v>-36.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:51" x14ac:dyDescent="0.6">
@@ -6412,7 +6412,7 @@
         <v>439</v>
       </c>
       <c r="B315" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:51" x14ac:dyDescent="0.6">
@@ -6428,7 +6428,7 @@
         <v>441</v>
       </c>
       <c r="B317" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:51" x14ac:dyDescent="0.6">
@@ -6444,7 +6444,7 @@
         <v>443</v>
       </c>
       <c r="B319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:51" x14ac:dyDescent="0.6">
@@ -6460,7 +6460,7 @@
         <v>445</v>
       </c>
       <c r="B321" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:52" x14ac:dyDescent="0.6">
@@ -6468,7 +6468,7 @@
         <v>446</v>
       </c>
       <c r="B322" s="25">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:52" x14ac:dyDescent="0.6">
@@ -6492,7 +6492,7 @@
         <v>449</v>
       </c>
       <c r="B325" s="26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:52" x14ac:dyDescent="0.6">
@@ -6500,7 +6500,7 @@
         <v>450</v>
       </c>
       <c r="B326" s="26">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -6508,7 +6508,7 @@
         <v>451</v>
       </c>
       <c r="B327" s="4">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:52" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
